--- a/assets/uploads/files/telgil.xlsx
+++ b/assets/uploads/files/telgil.xlsx
@@ -26,13 +26,13 @@
     <t>PG</t>
   </si>
   <si>
-    <t>IP20</t>
+    <t>KP14</t>
   </si>
   <si>
     <t>MULAI GILING :</t>
   </si>
   <si>
-    <t>2018-05-22</t>
+    <t>2018-07-26</t>
   </si>
   <si>
     <t>AKHIR GILING :</t>

--- a/assets/uploads/files/telgil.xlsx
+++ b/assets/uploads/files/telgil.xlsx
@@ -996,6 +996,14 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1005,19 +1013,11 @@
         <color rgb="FFFFFFFF"/>
       </left>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="181">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1489,16 +1489,49 @@
     <xf xfId="0" fontId="3" numFmtId="169" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="169" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="170" fillId="5" borderId="22" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="10" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -1507,7 +1540,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="170" fillId="5" borderId="24" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="170" fillId="5" borderId="25" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="170" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -1520,70 +1553,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="14" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1887,7 +1863,7 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1914,8 +1890,8 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="157">
-        <v>42886</v>
+      <c r="C3" s="180">
+        <v>43342</v>
       </c>
       <c r="E3" s="156"/>
       <c r="F3" s="6"/>
@@ -1958,22 +1934,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="157" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="163">
+      <c r="G6" s="174">
         <v>42886</v>
       </c>
-      <c r="H6" s="164"/>
+      <c r="H6" s="175"/>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="159">
+      <c r="K6" s="158">
         <v>0.03</v>
       </c>
     </row>
@@ -2025,10 +2001,10 @@
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="165"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -2635,10 +2611,10 @@
       <c r="B43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="166" t="s">
+      <c r="C43" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="166"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
       <c r="G43" s="49"/>
@@ -3471,10 +3447,10 @@
       <c r="B91" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="167" t="s">
+      <c r="C91" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="D91" s="168"/>
+      <c r="D91" s="161"/>
       <c r="E91" s="68"/>
       <c r="F91" s="69"/>
       <c r="G91" s="69"/>
@@ -3484,10 +3460,10 @@
       <c r="I91" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J91" s="169" t="s">
+      <c r="J91" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="170"/>
+      <c r="K91" s="179"/>
     </row>
     <row r="92" spans="1:11">
       <c r="B92" s="72"/>
@@ -3503,11 +3479,11 @@
       <c r="H92" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="I92" s="160" t="s">
+      <c r="I92" s="171" t="s">
         <v>102</v>
       </c>
-      <c r="J92" s="161"/>
-      <c r="K92" s="162"/>
+      <c r="J92" s="172"/>
+      <c r="K92" s="173"/>
     </row>
     <row r="93" spans="1:11">
       <c r="B93" s="77"/>
@@ -3575,10 +3551,10 @@
       <c r="B96" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="171" t="s">
+      <c r="C96" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="173"/>
+      <c r="D96" s="161"/>
       <c r="E96" s="33"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3601,11 +3577,11 @@
       <c r="H97" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="I97" s="174" t="s">
+      <c r="I97" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="J97" s="172"/>
-      <c r="K97" s="175"/>
+      <c r="J97" s="160"/>
+      <c r="K97" s="162"/>
     </row>
     <row r="98" spans="1:11" customHeight="1" ht="26.25">
       <c r="B98" s="96"/>
@@ -3621,11 +3597,11 @@
       <c r="H98" s="99">
         <v>1</v>
       </c>
-      <c r="I98" s="176" t="s">
+      <c r="I98" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="J98" s="177"/>
-      <c r="K98" s="178"/>
+      <c r="J98" s="164"/>
+      <c r="K98" s="165"/>
     </row>
     <row r="99" spans="1:11">
       <c r="B99" s="100"/>
@@ -3721,11 +3697,11 @@
       <c r="H103" s="106">
         <v>2</v>
       </c>
-      <c r="I103" s="176" t="s">
+      <c r="I103" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="J103" s="177"/>
-      <c r="K103" s="178"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="165"/>
     </row>
     <row r="104" spans="1:11">
       <c r="B104" s="77"/>
@@ -3815,11 +3791,11 @@
       <c r="H108" s="106">
         <v>3</v>
       </c>
-      <c r="I108" s="176" t="s">
+      <c r="I108" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="J108" s="177"/>
-      <c r="K108" s="178"/>
+      <c r="J108" s="164"/>
+      <c r="K108" s="165"/>
     </row>
     <row r="109" spans="1:11">
       <c r="B109" s="77"/>
@@ -3911,11 +3887,11 @@
       <c r="H113" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="I113" s="179" t="s">
+      <c r="I113" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="J113" s="180"/>
-      <c r="K113" s="181"/>
+      <c r="J113" s="167"/>
+      <c r="K113" s="168"/>
     </row>
     <row r="114" spans="1:11">
       <c r="B114" s="77"/>
@@ -4007,11 +3983,11 @@
       <c r="H118" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="I118" s="179" t="s">
+      <c r="I118" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="J118" s="180"/>
-      <c r="K118" s="181"/>
+      <c r="J118" s="167"/>
+      <c r="K118" s="168"/>
     </row>
     <row r="119" spans="1:11">
       <c r="B119" s="72" t="s">
@@ -4123,10 +4099,10 @@
       <c r="H124" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="I124" s="182" t="s">
+      <c r="I124" s="159" t="s">
         <v>183</v>
       </c>
-      <c r="J124" s="183"/>
+      <c r="J124" s="162"/>
       <c r="K124" s="123"/>
     </row>
     <row r="125" spans="1:11">
@@ -4165,10 +4141,10 @@
       <c r="B127" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C127" s="182" t="s">
+      <c r="C127" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="D127" s="184"/>
+      <c r="D127" s="160"/>
       <c r="E127" s="126"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -4179,10 +4155,10 @@
     </row>
     <row r="128" spans="1:11">
       <c r="B128" s="127"/>
-      <c r="C128" s="185" t="s">
+      <c r="C128" s="169" t="s">
         <v>190</v>
       </c>
-      <c r="D128" s="186"/>
+      <c r="D128" s="170"/>
       <c r="E128" s="128"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -4225,10 +4201,10 @@
     </row>
     <row r="131" spans="1:11">
       <c r="B131" s="77"/>
-      <c r="C131" s="187" t="s">
+      <c r="C131" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="188"/>
+      <c r="D131" s="170"/>
       <c r="E131" s="135"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -4305,10 +4281,10 @@
       <c r="B136" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="C136" s="171" t="s">
+      <c r="C136" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="D136" s="172"/>
+      <c r="D136" s="160"/>
       <c r="E136" s="146"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4394,6 +4370,12 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="J91:K91"/>
     <mergeCell ref="C136:D136"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="I97:K97"/>
@@ -4406,12 +4388,6 @@
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="J91:K91"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D6">
@@ -4426,7 +4402,7 @@
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/assets/uploads/files/telgil.xlsx
+++ b/assets/uploads/files/telgil.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
-    <t>LAPORAN TELEGRAM GILING TAHUN 2018</t>
+    <t>LAPORAN TELEGRAM GILING TAHUN 2019</t>
   </si>
   <si>
     <t>PERIODE</t>
@@ -26,13 +26,13 @@
     <t>PG</t>
   </si>
   <si>
-    <t>KP14</t>
+    <t>KP04</t>
   </si>
   <si>
     <t>MULAI GILING :</t>
   </si>
   <si>
-    <t>2018-07-26</t>
+    <t>2019-05-10</t>
   </si>
   <si>
     <t>AKHIR GILING :</t>
